--- a/pred_ohlcv/54/2019-10-19 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 FAB ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.93</v>
+        <v>6.01</v>
       </c>
       <c r="C2" t="n">
-        <v>5.93</v>
+        <v>6.01</v>
       </c>
       <c r="D2" t="n">
-        <v>5.93</v>
+        <v>6.01</v>
       </c>
       <c r="E2" t="n">
-        <v>5.93</v>
+        <v>6.01</v>
       </c>
       <c r="F2" t="n">
-        <v>4380.228</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>6.034666666666669</v>
+        <v>6.037833333333336</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>4380.228</v>
       </c>
       <c r="G3" t="n">
-        <v>6.034833333333336</v>
+        <v>6.034666666666669</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>5.99</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>3515.0667</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>6.03316666666667</v>
+        <v>6.034833333333336</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.93</v>
+        <v>5.99</v>
       </c>
       <c r="C5" t="n">
-        <v>5.93</v>
+        <v>5.99</v>
       </c>
       <c r="D5" t="n">
-        <v>5.93</v>
+        <v>5.99</v>
       </c>
       <c r="E5" t="n">
-        <v>5.93</v>
+        <v>5.99</v>
       </c>
       <c r="F5" t="n">
-        <v>3510.0586</v>
+        <v>3515.0667</v>
       </c>
       <c r="G5" t="n">
-        <v>6.03066666666667</v>
+        <v>6.03316666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.98</v>
+        <v>5.93</v>
       </c>
       <c r="C6" t="n">
-        <v>5.98</v>
+        <v>5.93</v>
       </c>
       <c r="D6" t="n">
-        <v>5.98</v>
+        <v>5.93</v>
       </c>
       <c r="E6" t="n">
-        <v>5.98</v>
+        <v>5.93</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>3510.0586</v>
       </c>
       <c r="G6" t="n">
-        <v>6.028833333333337</v>
+        <v>6.03066666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.9</v>
+        <v>5.98</v>
       </c>
       <c r="C7" t="n">
         <v>5.98</v>
@@ -547,15 +567,18 @@
         <v>5.98</v>
       </c>
       <c r="E7" t="n">
-        <v>5.89</v>
+        <v>5.98</v>
       </c>
       <c r="F7" t="n">
-        <v>42268.6811</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>6.027000000000005</v>
+        <v>6.028833333333337</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C8" t="n">
         <v>5.98</v>
       </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="E8" t="n">
         <v>5.89</v>
       </c>
       <c r="F8" t="n">
-        <v>106048.1539</v>
+        <v>42268.6811</v>
       </c>
       <c r="G8" t="n">
-        <v>6.025500000000005</v>
+        <v>6.027000000000005</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5.98</v>
       </c>
       <c r="C9" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="F9" t="n">
-        <v>192532.912</v>
+        <v>106048.1539</v>
       </c>
       <c r="G9" t="n">
-        <v>6.025166666666673</v>
+        <v>6.025500000000005</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="D10" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="E10" t="n">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>192532.912</v>
       </c>
       <c r="G10" t="n">
-        <v>6.028666666666672</v>
+        <v>6.025166666666673</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.93</v>
+        <v>6.08</v>
       </c>
       <c r="C11" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="D11" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="E11" t="n">
-        <v>5.93</v>
+        <v>6.08</v>
       </c>
       <c r="F11" t="n">
-        <v>12818.1366</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>6.029833333333339</v>
+        <v>6.028666666666672</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.99</v>
+        <v>5.93</v>
       </c>
       <c r="C12" t="n">
         <v>5.99</v>
@@ -677,15 +712,18 @@
         <v>5.99</v>
       </c>
       <c r="E12" t="n">
-        <v>5.99</v>
+        <v>5.93</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>12818.1366</v>
       </c>
       <c r="G12" t="n">
-        <v>6.031166666666672</v>
+        <v>6.029833333333339</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.93</v>
+        <v>5.99</v>
       </c>
       <c r="C13" t="n">
         <v>5.99</v>
@@ -703,15 +741,18 @@
         <v>5.99</v>
       </c>
       <c r="E13" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="F13" t="n">
-        <v>54729.0376</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>6.029833333333339</v>
+        <v>6.031166666666672</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="C14" t="n">
         <v>5.99</v>
@@ -732,12 +773,15 @@
         <v>5.92</v>
       </c>
       <c r="F14" t="n">
-        <v>16405.3369</v>
+        <v>54729.0376</v>
       </c>
       <c r="G14" t="n">
-        <v>6.028500000000006</v>
+        <v>6.029833333333339</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="C15" t="n">
         <v>5.99</v>
@@ -755,15 +799,18 @@
         <v>5.99</v>
       </c>
       <c r="E15" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>16405.3369</v>
       </c>
       <c r="G15" t="n">
-        <v>6.027166666666672</v>
+        <v>6.028500000000006</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="C16" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="D16" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="E16" t="n">
-        <v>5.92</v>
+        <v>5.99</v>
       </c>
       <c r="F16" t="n">
-        <v>68131.69500000001</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>6.024666666666673</v>
+        <v>6.027166666666672</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="C17" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="D17" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="E17" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>68131.69500000001</v>
       </c>
       <c r="G17" t="n">
-        <v>6.02333333333334</v>
+        <v>6.024666666666673</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>5.99</v>
       </c>
       <c r="F18" t="n">
-        <v>12437.1366</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>6.022000000000006</v>
+        <v>6.02333333333334</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.06</v>
+        <v>5.99</v>
       </c>
       <c r="C19" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="D19" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="E19" t="n">
-        <v>6.06</v>
+        <v>5.99</v>
       </c>
       <c r="F19" t="n">
-        <v>127.5986</v>
+        <v>12437.1366</v>
       </c>
       <c r="G19" t="n">
-        <v>6.022166666666673</v>
+        <v>6.022000000000006</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.08</v>
+        <v>6.06</v>
       </c>
       <c r="C20" t="n">
         <v>6.08</v>
@@ -885,15 +944,18 @@
         <v>6.08</v>
       </c>
       <c r="E20" t="n">
-        <v>5.93</v>
+        <v>6.06</v>
       </c>
       <c r="F20" t="n">
-        <v>219.95</v>
+        <v>127.5986</v>
       </c>
       <c r="G20" t="n">
-        <v>6.022333333333339</v>
+        <v>6.022166666666673</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -911,15 +973,18 @@
         <v>6.08</v>
       </c>
       <c r="E21" t="n">
-        <v>6.08</v>
+        <v>5.93</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>219.95</v>
       </c>
       <c r="G21" t="n">
-        <v>6.022500000000006</v>
+        <v>6.022333333333339</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>6.08</v>
       </c>
       <c r="F22" t="n">
-        <v>88.8888</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>6.022666666666672</v>
+        <v>6.022500000000006</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -969,9 +1037,12 @@
         <v>88.8888</v>
       </c>
       <c r="G23" t="n">
-        <v>6.025166666666673</v>
+        <v>6.022666666666672</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="C24" t="n">
         <v>6.08</v>
@@ -989,15 +1060,18 @@
         <v>6.08</v>
       </c>
       <c r="E24" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="F24" t="n">
-        <v>519.4443</v>
+        <v>88.8888</v>
       </c>
       <c r="G24" t="n">
-        <v>6.027666666666672</v>
+        <v>6.025166666666673</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,7 +1080,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="C25" t="n">
         <v>6.08</v>
@@ -1015,15 +1089,18 @@
         <v>6.08</v>
       </c>
       <c r="E25" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="F25" t="n">
-        <v>350.62</v>
+        <v>519.4443</v>
       </c>
       <c r="G25" t="n">
-        <v>6.027833333333338</v>
+        <v>6.027666666666672</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>6.08</v>
       </c>
       <c r="F26" t="n">
-        <v>24.671</v>
+        <v>350.62</v>
       </c>
       <c r="G26" t="n">
-        <v>6.030333333333338</v>
+        <v>6.027833333333338</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>6.08</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>24.671</v>
       </c>
       <c r="G27" t="n">
-        <v>6.030500000000004</v>
+        <v>6.030333333333338</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.06</v>
+        <v>6.08</v>
       </c>
       <c r="C28" t="n">
-        <v>6.06</v>
+        <v>6.08</v>
       </c>
       <c r="D28" t="n">
-        <v>6.06</v>
+        <v>6.08</v>
       </c>
       <c r="E28" t="n">
-        <v>6.06</v>
+        <v>6.08</v>
       </c>
       <c r="F28" t="n">
-        <v>10750</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>6.030166666666672</v>
+        <v>6.030500000000004</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.93</v>
+        <v>6.06</v>
       </c>
       <c r="C29" t="n">
-        <v>5.91</v>
+        <v>6.06</v>
       </c>
       <c r="D29" t="n">
-        <v>5.93</v>
+        <v>6.06</v>
       </c>
       <c r="E29" t="n">
-        <v>5.91</v>
+        <v>6.06</v>
       </c>
       <c r="F29" t="n">
-        <v>219526.2546</v>
+        <v>10750</v>
       </c>
       <c r="G29" t="n">
-        <v>6.030000000000005</v>
+        <v>6.030166666666672</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>5.91</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5.91</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>219526.2546</v>
       </c>
       <c r="G30" t="n">
-        <v>6.028666666666672</v>
+        <v>6.030000000000005</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>5.89</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
-        <v>522788.8656</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>6.025500000000005</v>
+        <v>6.028666666666672</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.01</v>
+        <v>5.9</v>
       </c>
       <c r="C32" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="D32" t="n">
-        <v>6.01</v>
+        <v>5.9</v>
       </c>
       <c r="E32" t="n">
-        <v>5.88</v>
+        <v>5.89</v>
       </c>
       <c r="F32" t="n">
-        <v>270869.3757</v>
+        <v>522788.8656</v>
       </c>
       <c r="G32" t="n">
-        <v>6.022166666666672</v>
+        <v>6.025500000000005</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5.88</v>
+        <v>6.01</v>
       </c>
       <c r="C33" t="n">
         <v>5.88</v>
       </c>
       <c r="D33" t="n">
-        <v>5.88</v>
+        <v>6.01</v>
       </c>
       <c r="E33" t="n">
         <v>5.88</v>
       </c>
       <c r="F33" t="n">
-        <v>20732.6301</v>
+        <v>270869.3757</v>
       </c>
       <c r="G33" t="n">
-        <v>6.021333333333339</v>
+        <v>6.022166666666672</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="C34" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="D34" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="E34" t="n">
-        <v>5.93</v>
+        <v>5.88</v>
       </c>
       <c r="F34" t="n">
-        <v>11</v>
+        <v>20732.6301</v>
       </c>
       <c r="G34" t="n">
-        <v>6.019833333333339</v>
+        <v>6.021333333333339</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="C35" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="D35" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="E35" t="n">
-        <v>5.96</v>
+        <v>5.93</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>6.018833333333339</v>
+        <v>6.019833333333339</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="C36" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="D36" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="E36" t="n">
-        <v>6.01</v>
+        <v>5.96</v>
       </c>
       <c r="F36" t="n">
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>6.018666666666673</v>
+        <v>6.018833333333339</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1333,9 +1443,12 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>6.017666666666672</v>
+        <v>6.018666666666673</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5.88</v>
+        <v>6.01</v>
       </c>
       <c r="C38" t="n">
-        <v>5.92</v>
+        <v>6.01</v>
       </c>
       <c r="D38" t="n">
-        <v>5.92</v>
+        <v>6.01</v>
       </c>
       <c r="E38" t="n">
-        <v>5.88</v>
+        <v>6.01</v>
       </c>
       <c r="F38" t="n">
-        <v>1733.4512</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>6.015166666666673</v>
+        <v>6.017666666666672</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.03</v>
+        <v>5.88</v>
       </c>
       <c r="C39" t="n">
-        <v>6.03</v>
+        <v>5.92</v>
       </c>
       <c r="D39" t="n">
-        <v>6.03</v>
+        <v>5.92</v>
       </c>
       <c r="E39" t="n">
-        <v>6.03</v>
+        <v>5.88</v>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>1733.4512</v>
       </c>
       <c r="G39" t="n">
-        <v>6.014500000000006</v>
+        <v>6.015166666666673</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5.88</v>
+        <v>6.03</v>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>6.03</v>
       </c>
       <c r="E40" t="n">
-        <v>5.87</v>
+        <v>6.03</v>
       </c>
       <c r="F40" t="n">
-        <v>342813.5931</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>6.013333333333339</v>
+        <v>6.014500000000006</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6</v>
+        <v>5.88</v>
       </c>
       <c r="C41" t="n">
         <v>6</v>
@@ -1431,15 +1553,18 @@
         <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>342813.5931</v>
       </c>
       <c r="G41" t="n">
-        <v>6.012000000000006</v>
+        <v>6.013333333333339</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,7 +1573,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5.87</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
         <v>6</v>
@@ -1457,15 +1582,18 @@
         <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>5.87</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>82522.1237</v>
+        <v>100</v>
       </c>
       <c r="G42" t="n">
-        <v>6.010666666666673</v>
+        <v>6.012000000000006</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="C43" t="n">
         <v>6</v>
@@ -1483,15 +1611,18 @@
         <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="F43" t="n">
-        <v>1400</v>
+        <v>82522.1237</v>
       </c>
       <c r="G43" t="n">
-        <v>6.00933333333334</v>
+        <v>6.010666666666673</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>6093.8833</v>
+        <v>1400</v>
       </c>
       <c r="G44" t="n">
-        <v>6.008000000000007</v>
+        <v>6.00933333333334</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>6</v>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>6093.8833</v>
       </c>
       <c r="G45" t="n">
-        <v>6.006666666666674</v>
+        <v>6.008000000000007</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>6</v>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>6.005333333333341</v>
+        <v>6.006666666666674</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1590,12 +1730,15 @@
         <v>6</v>
       </c>
       <c r="F47" t="n">
-        <v>3883.7499</v>
+        <v>200</v>
       </c>
       <c r="G47" t="n">
-        <v>6.004000000000008</v>
+        <v>6.005333333333341</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,12 +1759,15 @@
         <v>6</v>
       </c>
       <c r="F48" t="n">
-        <v>4823.6369</v>
+        <v>3883.7499</v>
       </c>
       <c r="G48" t="n">
-        <v>6.002666666666674</v>
+        <v>6.004000000000008</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>6</v>
       </c>
       <c r="F49" t="n">
-        <v>1557.3333</v>
+        <v>4823.6369</v>
       </c>
       <c r="G49" t="n">
-        <v>6.001333333333341</v>
+        <v>6.002666666666674</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1659,21 +1808,24 @@
         <v>6</v>
       </c>
       <c r="C50" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
         <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>21242.6673</v>
+        <v>1557.3333</v>
       </c>
       <c r="G50" t="n">
-        <v>6.000666666666675</v>
+        <v>6.001333333333341</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,7 +1834,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="C51" t="n">
         <v>6.04</v>
@@ -1691,16 +1843,19 @@
         <v>6.04</v>
       </c>
       <c r="E51" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="F51" t="n">
-        <v>1100</v>
+        <v>21242.6673</v>
       </c>
       <c r="G51" t="n">
-        <v>6.00000000000001</v>
+        <v>6.000666666666675</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1720,13 +1875,16 @@
         <v>6.04</v>
       </c>
       <c r="F52" t="n">
-        <v>4800</v>
+        <v>1100</v>
       </c>
       <c r="G52" t="n">
-        <v>6.001833333333343</v>
+        <v>6.00000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1737,22 +1895,25 @@
         <v>6.04</v>
       </c>
       <c r="C53" t="n">
-        <v>5.9</v>
+        <v>6.04</v>
       </c>
       <c r="D53" t="n">
         <v>6.04</v>
       </c>
       <c r="E53" t="n">
-        <v>5.9</v>
+        <v>6.04</v>
       </c>
       <c r="F53" t="n">
-        <v>7282.9845</v>
+        <v>4800</v>
       </c>
       <c r="G53" t="n">
-        <v>5.999000000000009</v>
+        <v>6.001833333333343</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1760,10 +1921,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C54" t="n">
         <v>5.9</v>
-      </c>
-      <c r="C54" t="n">
-        <v>6.04</v>
       </c>
       <c r="D54" t="n">
         <v>6.04</v>
@@ -1772,12 +1933,15 @@
         <v>5.9</v>
       </c>
       <c r="F54" t="n">
-        <v>3799.3508</v>
+        <v>7282.9845</v>
       </c>
       <c r="G54" t="n">
-        <v>5.998833333333343</v>
+        <v>5.999000000000009</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,7 +1950,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.04</v>
+        <v>5.9</v>
       </c>
       <c r="C55" t="n">
         <v>6.04</v>
@@ -1795,15 +1959,18 @@
         <v>6.04</v>
       </c>
       <c r="E55" t="n">
-        <v>6.04</v>
+        <v>5.9</v>
       </c>
       <c r="F55" t="n">
-        <v>20900</v>
+        <v>3799.3508</v>
       </c>
       <c r="G55" t="n">
-        <v>5.998666666666677</v>
+        <v>5.998833333333343</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>6.04</v>
       </c>
       <c r="C56" t="n">
-        <v>5.9</v>
+        <v>6.04</v>
       </c>
       <c r="D56" t="n">
         <v>6.04</v>
       </c>
       <c r="E56" t="n">
-        <v>5.9</v>
+        <v>6.04</v>
       </c>
       <c r="F56" t="n">
-        <v>1856.1899</v>
+        <v>20900</v>
       </c>
       <c r="G56" t="n">
-        <v>5.996166666666676</v>
+        <v>5.998666666666677</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>6.04</v>
       </c>
       <c r="C57" t="n">
-        <v>6.04</v>
+        <v>5.9</v>
       </c>
       <c r="D57" t="n">
         <v>6.04</v>
       </c>
       <c r="E57" t="n">
-        <v>6.04</v>
+        <v>5.9</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>1856.1899</v>
       </c>
       <c r="G57" t="n">
-        <v>5.998166666666676</v>
+        <v>5.996166666666676</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1876,12 +2049,15 @@
         <v>6.04</v>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>5.99950000000001</v>
+        <v>5.998166666666676</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1905,9 +2081,12 @@
         <v>100</v>
       </c>
       <c r="G59" t="n">
-        <v>6.001166666666677</v>
+        <v>5.99950000000001</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>6.04</v>
       </c>
       <c r="F60" t="n">
-        <v>759.437</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>6.003000000000011</v>
+        <v>6.001166666666677</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>6.04</v>
       </c>
       <c r="F61" t="n">
-        <v>884.7529</v>
+        <v>759.437</v>
       </c>
       <c r="G61" t="n">
-        <v>6.003500000000011</v>
+        <v>6.003000000000011</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>6.04</v>
       </c>
       <c r="F62" t="n">
-        <v>2224.31</v>
+        <v>884.7529</v>
       </c>
       <c r="G62" t="n">
-        <v>6.005333333333344</v>
+        <v>6.003500000000011</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1997,21 +2185,24 @@
         <v>6.04</v>
       </c>
       <c r="C63" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="D63" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="E63" t="n">
         <v>6.04</v>
       </c>
       <c r="F63" t="n">
-        <v>4786.69</v>
+        <v>2224.31</v>
       </c>
       <c r="G63" t="n">
-        <v>6.006166666666678</v>
+        <v>6.005333333333344</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,7 +2211,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="C64" t="n">
         <v>6.05</v>
@@ -2029,15 +2220,18 @@
         <v>6.05</v>
       </c>
       <c r="E64" t="n">
-        <v>6.05</v>
+        <v>6.04</v>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>4786.69</v>
       </c>
       <c r="G64" t="n">
-        <v>6.007166666666678</v>
+        <v>6.006166666666678</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>6.05</v>
       </c>
       <c r="F65" t="n">
-        <v>689.0611</v>
+        <v>200</v>
       </c>
       <c r="G65" t="n">
-        <v>6.009166666666678</v>
+        <v>6.007166666666678</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>6.05</v>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>689.0611</v>
       </c>
       <c r="G66" t="n">
-        <v>6.010333333333345</v>
+        <v>6.009166666666678</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2110,12 +2310,15 @@
         <v>6.05</v>
       </c>
       <c r="F67" t="n">
-        <v>44.4444</v>
+        <v>100</v>
       </c>
       <c r="G67" t="n">
-        <v>6.011500000000011</v>
+        <v>6.010333333333345</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>6.05</v>
       </c>
       <c r="F68" t="n">
-        <v>43926.6115</v>
+        <v>44.4444</v>
       </c>
       <c r="G68" t="n">
-        <v>6.012333333333345</v>
+        <v>6.011500000000011</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>6.05</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>43926.6115</v>
       </c>
       <c r="G69" t="n">
-        <v>6.012000000000012</v>
+        <v>6.012333333333345</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2185,15 +2394,18 @@
         <v>6.05</v>
       </c>
       <c r="E70" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="F70" t="n">
-        <v>73.9225</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>6.011500000000012</v>
+        <v>6.012000000000012</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2211,15 +2423,18 @@
         <v>6.05</v>
       </c>
       <c r="E71" t="n">
-        <v>6.05</v>
+        <v>5.9</v>
       </c>
       <c r="F71" t="n">
-        <v>2000</v>
+        <v>73.9225</v>
       </c>
       <c r="G71" t="n">
-        <v>6.012500000000013</v>
+        <v>6.011500000000012</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>6.05</v>
       </c>
       <c r="F72" t="n">
-        <v>3776</v>
+        <v>2000</v>
       </c>
       <c r="G72" t="n">
-        <v>6.013500000000012</v>
+        <v>6.012500000000013</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,13 +2484,16 @@
         <v>6.05</v>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>3776</v>
       </c>
       <c r="G73" t="n">
-        <v>6.014500000000012</v>
+        <v>6.013500000000012</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2292,12 +2513,15 @@
         <v>6.05</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G74" t="n">
-        <v>6.015500000000013</v>
+        <v>6.014500000000012</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2321,9 +2545,12 @@
         <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>6.016500000000012</v>
+        <v>6.015500000000013</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2347,9 +2574,12 @@
         <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>6.018666666666679</v>
+        <v>6.016500000000012</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,7 +2588,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="C77" t="n">
         <v>6.05</v>
@@ -2367,15 +2597,18 @@
         <v>6.05</v>
       </c>
       <c r="E77" t="n">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="F77" t="n">
-        <v>100010</v>
+        <v>100</v>
       </c>
       <c r="G77" t="n">
-        <v>6.019666666666679</v>
+        <v>6.018666666666679</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.04</v>
+        <v>5.9</v>
       </c>
       <c r="C78" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="D78" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="E78" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="F78" t="n">
-        <v>1811.4238</v>
+        <v>100010</v>
       </c>
       <c r="G78" t="n">
-        <v>6.020500000000013</v>
+        <v>6.019666666666679</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="C79" t="n">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="D79" t="n">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="E79" t="n">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="F79" t="n">
-        <v>772.2033</v>
+        <v>1811.4238</v>
       </c>
       <c r="G79" t="n">
-        <v>6.017333333333346</v>
+        <v>6.020500000000013</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="C80" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="D80" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="E80" t="n">
-        <v>6.04</v>
+        <v>5.89</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>772.2033</v>
       </c>
       <c r="G80" t="n">
-        <v>6.01666666666668</v>
+        <v>6.017333333333346</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2474,12 +2716,15 @@
         <v>6.04</v>
       </c>
       <c r="F81" t="n">
-        <v>5653.8079</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>6.016000000000014</v>
+        <v>6.01666666666668</v>
       </c>
       <c r="H81" t="n">
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="C82" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="D82" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="E82" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="F82" t="n">
-        <v>20</v>
+        <v>5653.8079</v>
       </c>
       <c r="G82" t="n">
-        <v>6.015000000000014</v>
+        <v>6.016000000000014</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="C83" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="D83" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="E83" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="F83" t="n">
-        <v>851.6652</v>
+        <v>20</v>
       </c>
       <c r="G83" t="n">
-        <v>6.01416666666668</v>
+        <v>6.015000000000014</v>
       </c>
       <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>6.03</v>
       </c>
       <c r="F84" t="n">
-        <v>3472.9085</v>
+        <v>851.6652</v>
       </c>
       <c r="G84" t="n">
-        <v>6.013333333333347</v>
+        <v>6.01416666666668</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2569,21 +2823,24 @@
         <v>6.03</v>
       </c>
       <c r="C85" t="n">
-        <v>6.04</v>
+        <v>6.03</v>
       </c>
       <c r="D85" t="n">
-        <v>6.04</v>
+        <v>6.03</v>
       </c>
       <c r="E85" t="n">
         <v>6.03</v>
       </c>
       <c r="F85" t="n">
-        <v>2586.6428</v>
+        <v>3472.9085</v>
       </c>
       <c r="G85" t="n">
-        <v>6.01266666666668</v>
+        <v>6.013333333333347</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,7 +2849,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.04</v>
+        <v>6.03</v>
       </c>
       <c r="C86" t="n">
         <v>6.04</v>
@@ -2601,15 +2858,18 @@
         <v>6.04</v>
       </c>
       <c r="E86" t="n">
-        <v>6.04</v>
+        <v>6.03</v>
       </c>
       <c r="F86" t="n">
-        <v>44.4444</v>
+        <v>2586.6428</v>
       </c>
       <c r="G86" t="n">
-        <v>6.012000000000015</v>
+        <v>6.01266666666668</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="C87" t="n">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="D87" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="E87" t="n">
-        <v>5.89</v>
+        <v>6.04</v>
       </c>
       <c r="F87" t="n">
-        <v>43816.7949</v>
+        <v>44.4444</v>
       </c>
       <c r="G87" t="n">
-        <v>6.008833333333348</v>
+        <v>6.012000000000015</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>6.03</v>
       </c>
       <c r="C88" t="n">
-        <v>6.03</v>
+        <v>5.89</v>
       </c>
       <c r="D88" t="n">
         <v>6.03</v>
       </c>
       <c r="E88" t="n">
-        <v>6.03</v>
+        <v>5.89</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>43816.7949</v>
       </c>
       <c r="G88" t="n">
-        <v>6.008333333333348</v>
+        <v>6.008833333333348</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.89</v>
+        <v>6.03</v>
       </c>
       <c r="C89" t="n">
         <v>6.03</v>
@@ -2679,15 +2945,18 @@
         <v>6.03</v>
       </c>
       <c r="E89" t="n">
-        <v>5.89</v>
+        <v>6.03</v>
       </c>
       <c r="F89" t="n">
-        <v>5612.7164</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>6.010333333333347</v>
+        <v>6.008333333333348</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,24 +2965,27 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.02</v>
+        <v>5.89</v>
       </c>
       <c r="C90" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="D90" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="E90" t="n">
-        <v>6.02</v>
+        <v>5.89</v>
       </c>
       <c r="F90" t="n">
-        <v>100</v>
+        <v>5612.7164</v>
       </c>
       <c r="G90" t="n">
-        <v>6.01066666666668</v>
+        <v>6.010333333333347</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2737,9 +3009,12 @@
         <v>100</v>
       </c>
       <c r="G91" t="n">
-        <v>6.012833333333346</v>
+        <v>6.01066666666668</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2763,9 +3038,12 @@
         <v>100</v>
       </c>
       <c r="G92" t="n">
-        <v>6.015166666666679</v>
+        <v>6.012833333333346</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,7 +3052,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>5.89</v>
+        <v>6.02</v>
       </c>
       <c r="C93" t="n">
         <v>6.02</v>
@@ -2783,15 +3061,18 @@
         <v>6.02</v>
       </c>
       <c r="E93" t="n">
-        <v>5.89</v>
+        <v>6.02</v>
       </c>
       <c r="F93" t="n">
-        <v>41097.5744</v>
+        <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>6.017500000000013</v>
+        <v>6.015166666666679</v>
       </c>
       <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.01</v>
+        <v>5.89</v>
       </c>
       <c r="C94" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="D94" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="E94" t="n">
-        <v>6.01</v>
+        <v>5.89</v>
       </c>
       <c r="F94" t="n">
-        <v>1093.677204658902</v>
+        <v>41097.5744</v>
       </c>
       <c r="G94" t="n">
-        <v>6.018833333333346</v>
+        <v>6.017500000000013</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>6.01</v>
       </c>
       <c r="F95" t="n">
-        <v>9029.242899999999</v>
+        <v>1093.677204658902</v>
       </c>
       <c r="G95" t="n">
-        <v>6.019666666666679</v>
+        <v>6.018833333333346</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>6.01</v>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>9029.242899999999</v>
       </c>
       <c r="G96" t="n">
         <v>6.019666666666679</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>5.89</v>
+        <v>6.01</v>
       </c>
       <c r="C97" t="n">
-        <v>5.89</v>
+        <v>6.01</v>
       </c>
       <c r="D97" t="n">
-        <v>5.89</v>
+        <v>6.01</v>
       </c>
       <c r="E97" t="n">
-        <v>5.89</v>
+        <v>6.01</v>
       </c>
       <c r="F97" t="n">
-        <v>11565.5761</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>6.017666666666679</v>
+        <v>6.019666666666679</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.01</v>
+        <v>5.89</v>
       </c>
       <c r="C98" t="n">
-        <v>6.01</v>
+        <v>5.89</v>
       </c>
       <c r="D98" t="n">
-        <v>6.01</v>
+        <v>5.89</v>
       </c>
       <c r="E98" t="n">
-        <v>6.01</v>
+        <v>5.89</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>11565.5761</v>
       </c>
       <c r="G98" t="n">
-        <v>6.019166666666679</v>
+        <v>6.017666666666679</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.89</v>
+        <v>6.01</v>
       </c>
       <c r="C99" t="n">
-        <v>5.87</v>
+        <v>6.01</v>
       </c>
       <c r="D99" t="n">
-        <v>5.89</v>
+        <v>6.01</v>
       </c>
       <c r="E99" t="n">
-        <v>5.87</v>
+        <v>6.01</v>
       </c>
       <c r="F99" t="n">
-        <v>850000</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>6.016500000000012</v>
+        <v>6.019166666666679</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="C100" t="n">
         <v>5.87</v>
       </c>
       <c r="D100" t="n">
-        <v>6</v>
+        <v>5.89</v>
       </c>
       <c r="E100" t="n">
         <v>5.87</v>
       </c>
       <c r="F100" t="n">
-        <v>22686.7712</v>
+        <v>850000</v>
       </c>
       <c r="G100" t="n">
-        <v>6.014333333333346</v>
+        <v>6.016500000000012</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2985,21 +3287,24 @@
         <v>6</v>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="D101" t="n">
         <v>6</v>
       </c>
       <c r="E101" t="n">
-        <v>6</v>
+        <v>5.87</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>22686.7712</v>
       </c>
       <c r="G101" t="n">
         <v>6.014333333333346</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.88</v>
+        <v>6</v>
       </c>
       <c r="C102" t="n">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>5.98</v>
+        <v>6</v>
       </c>
       <c r="E102" t="n">
-        <v>5.88</v>
+        <v>6</v>
       </c>
       <c r="F102" t="n">
-        <v>5649.8513</v>
+        <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>6.014000000000013</v>
+        <v>6.014333333333346</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,7 +3342,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="C103" t="n">
         <v>5.98</v>
@@ -3043,15 +3351,18 @@
         <v>5.98</v>
       </c>
       <c r="E103" t="n">
-        <v>5.87</v>
+        <v>5.88</v>
       </c>
       <c r="F103" t="n">
-        <v>4955.9512</v>
+        <v>5649.8513</v>
       </c>
       <c r="G103" t="n">
-        <v>6.01366666666668</v>
+        <v>6.014000000000013</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,7 +3371,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>5.98</v>
+        <v>5.87</v>
       </c>
       <c r="C104" t="n">
         <v>5.98</v>
@@ -3069,15 +3380,18 @@
         <v>5.98</v>
       </c>
       <c r="E104" t="n">
-        <v>5.98</v>
+        <v>5.87</v>
       </c>
       <c r="F104" t="n">
-        <v>10000</v>
+        <v>4955.9512</v>
       </c>
       <c r="G104" t="n">
-        <v>6.013333333333347</v>
+        <v>6.01366666666668</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>5.98</v>
       </c>
       <c r="F105" t="n">
-        <v>4979</v>
+        <v>10000</v>
       </c>
       <c r="G105" t="n">
-        <v>6.013000000000014</v>
+        <v>6.013333333333347</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>5.88</v>
+        <v>5.98</v>
       </c>
       <c r="C106" t="n">
-        <v>5.87</v>
+        <v>5.98</v>
       </c>
       <c r="D106" t="n">
-        <v>5.88</v>
+        <v>5.98</v>
       </c>
       <c r="E106" t="n">
-        <v>5.87</v>
+        <v>5.98</v>
       </c>
       <c r="F106" t="n">
-        <v>25584.1689</v>
+        <v>4979</v>
       </c>
       <c r="G106" t="n">
-        <v>6.010833333333347</v>
+        <v>6.013000000000014</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.97</v>
+        <v>5.88</v>
       </c>
       <c r="C107" t="n">
-        <v>5.97</v>
+        <v>5.87</v>
       </c>
       <c r="D107" t="n">
-        <v>5.97</v>
+        <v>5.88</v>
       </c>
       <c r="E107" t="n">
-        <v>5.97</v>
+        <v>5.87</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>25584.1689</v>
       </c>
       <c r="G107" t="n">
-        <v>6.010333333333348</v>
+        <v>6.010833333333347</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3179,9 +3502,12 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>6.009833333333348</v>
+        <v>6.010333333333348</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,7 +3516,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5.87</v>
+        <v>5.97</v>
       </c>
       <c r="C109" t="n">
         <v>5.97</v>
@@ -3199,15 +3525,18 @@
         <v>5.97</v>
       </c>
       <c r="E109" t="n">
-        <v>5.87</v>
+        <v>5.97</v>
       </c>
       <c r="F109" t="n">
-        <v>77.4496</v>
+        <v>10</v>
       </c>
       <c r="G109" t="n">
-        <v>6.009333333333348</v>
+        <v>6.009833333333348</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,7 +3545,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.97</v>
+        <v>5.87</v>
       </c>
       <c r="C110" t="n">
         <v>5.97</v>
@@ -3225,15 +3554,18 @@
         <v>5.97</v>
       </c>
       <c r="E110" t="n">
-        <v>5.97</v>
+        <v>5.87</v>
       </c>
       <c r="F110" t="n">
-        <v>194.9748743718593</v>
+        <v>77.4496</v>
       </c>
       <c r="G110" t="n">
-        <v>6.008166666666682</v>
+        <v>6.009333333333348</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.94</v>
+        <v>5.97</v>
       </c>
       <c r="C111" t="n">
-        <v>5.94</v>
+        <v>5.97</v>
       </c>
       <c r="D111" t="n">
-        <v>5.94</v>
+        <v>5.97</v>
       </c>
       <c r="E111" t="n">
-        <v>5.94</v>
+        <v>5.97</v>
       </c>
       <c r="F111" t="n">
-        <v>168.3501</v>
+        <v>194.9748743718593</v>
       </c>
       <c r="G111" t="n">
-        <v>6.006500000000015</v>
+        <v>6.008166666666682</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>5.94</v>
       </c>
       <c r="F112" t="n">
-        <v>150</v>
+        <v>168.3501</v>
       </c>
       <c r="G112" t="n">
-        <v>6.004833333333348</v>
+        <v>6.006500000000015</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,532 +3644,15 @@
         <v>5.94</v>
       </c>
       <c r="F113" t="n">
-        <v>2101.2012</v>
+        <v>150</v>
       </c>
       <c r="G113" t="n">
-        <v>6.005500000000015</v>
+        <v>6.004833333333348</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="D114" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E114" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2776.448</v>
-      </c>
-      <c r="G114" t="n">
-        <v>6.004000000000015</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C115" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D115" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E115" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="F115" t="n">
-        <v>13498.1193</v>
-      </c>
-      <c r="G115" t="n">
-        <v>6.002833333333347</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C116" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D116" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E116" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F116" t="n">
-        <v>689.3031</v>
-      </c>
-      <c r="G116" t="n">
-        <v>6.004000000000016</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C117" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D117" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E117" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F117" t="n">
-        <v>7410.1698</v>
-      </c>
-      <c r="G117" t="n">
-        <v>6.002833333333348</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C118" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D118" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E118" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F118" t="n">
-        <v>266.6664</v>
-      </c>
-      <c r="G118" t="n">
-        <v>6.001666666666682</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C119" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D119" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E119" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F119" t="n">
-        <v>222.222</v>
-      </c>
-      <c r="G119" t="n">
-        <v>6.000500000000016</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C120" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D120" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E120" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F120" t="n">
-        <v>311.1108</v>
-      </c>
-      <c r="G120" t="n">
-        <v>5.999333333333349</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C121" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D121" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E121" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F121" t="n">
-        <v>9698.5355</v>
-      </c>
-      <c r="G121" t="n">
-        <v>5.996500000000015</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C122" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D122" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E122" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F122" t="n">
-        <v>11</v>
-      </c>
-      <c r="G122" t="n">
-        <v>5.995333333333349</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C123" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D123" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E123" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F123" t="n">
-        <v>222.222</v>
-      </c>
-      <c r="G123" t="n">
-        <v>5.994000000000016</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C124" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D124" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E124" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F124" t="n">
-        <v>922.3344</v>
-      </c>
-      <c r="G124" t="n">
-        <v>5.992666666666683</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C125" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D125" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E125" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F125" t="n">
-        <v>800</v>
-      </c>
-      <c r="G125" t="n">
-        <v>5.991333333333349</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C126" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D126" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E126" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G126" t="n">
-        <v>5.990000000000017</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C127" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D127" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E127" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F127" t="n">
-        <v>300</v>
-      </c>
-      <c r="G127" t="n">
-        <v>5.988666666666684</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C128" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D128" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E128" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F128" t="n">
-        <v>700</v>
-      </c>
-      <c r="G128" t="n">
-        <v>5.987333333333351</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="C129" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="D129" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="E129" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="F129" t="n">
-        <v>200</v>
-      </c>
-      <c r="G129" t="n">
-        <v>5.986000000000018</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C130" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="D130" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="E130" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F130" t="n">
-        <v>23025.752</v>
-      </c>
-      <c r="G130" t="n">
-        <v>5.983000000000017</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C131" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="D131" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E131" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F131" t="n">
-        <v>20</v>
-      </c>
-      <c r="G131" t="n">
-        <v>5.981500000000016</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C132" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="D132" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E132" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F132" t="n">
-        <v>200</v>
-      </c>
-      <c r="G132" t="n">
-        <v>5.980000000000016</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="C133" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="D133" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E133" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="F133" t="n">
-        <v>67464.2739</v>
-      </c>
-      <c r="G133" t="n">
-        <v>5.978500000000015</v>
-      </c>
-      <c r="H133" t="n">
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
